--- a/Eagle/PDM/PDM_BOM.xlsx
+++ b/Eagle/PDM/PDM_BOM.xlsx
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -744,236 +744,242 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
+      <c r="A13" s="2">
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
@@ -982,73 +988,67 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s">
-        <v>75</v>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
